--- a/silp_backend/plantilla_carga_masiva.xlsx
+++ b/silp_backend/plantilla_carga_masiva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo_suarez1983/SILP/silp_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364FC93-623C-4746-A3DE-2208E419DE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF294EF-5311-144E-90F4-6BA66152E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32640" yWindow="-2120" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="328">
   <si>
     <t>first_name</t>
   </si>
@@ -134,6 +134,876 @@
   </si>
   <si>
     <t>REF-004</t>
+  </si>
+  <si>
+    <t>Wilton Hernando</t>
+  </si>
+  <si>
+    <t>Moncada</t>
+  </si>
+  <si>
+    <t>88216858</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>VERDADERO</t>
+  </si>
+  <si>
+    <t>Maureen Carrillo</t>
+  </si>
+  <si>
+    <t>Carrillo</t>
+  </si>
+  <si>
+    <t>375754848</t>
+  </si>
+  <si>
+    <t>Mario Garofalo</t>
+  </si>
+  <si>
+    <t>Garofalo</t>
+  </si>
+  <si>
+    <t>424838928</t>
+  </si>
+  <si>
+    <t>Juliana Carreño</t>
+  </si>
+  <si>
+    <t>Xx</t>
+  </si>
+  <si>
+    <t>1007387752</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Yisely Chinome</t>
+  </si>
+  <si>
+    <t>Chinome</t>
+  </si>
+  <si>
+    <t>1090175029</t>
+  </si>
+  <si>
+    <t>Luz Angelica</t>
+  </si>
+  <si>
+    <t>Jaimes</t>
+  </si>
+  <si>
+    <t>1090507101</t>
+  </si>
+  <si>
+    <t>Marco Tulio</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>1092254092</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Yessica Gamboa</t>
+  </si>
+  <si>
+    <t>Gamboa Cely</t>
+  </si>
+  <si>
+    <t>1118553305</t>
+  </si>
+  <si>
+    <t>Delfin Veloza</t>
+  </si>
+  <si>
+    <t>Veloza</t>
+  </si>
+  <si>
+    <t>3001115550</t>
+  </si>
+  <si>
+    <t>Daniel Torrado</t>
+  </si>
+  <si>
+    <t>Torrado</t>
+  </si>
+  <si>
+    <t>3002042327</t>
+  </si>
+  <si>
+    <t>Centro Inyeccion</t>
+  </si>
+  <si>
+    <t>Inyeccion</t>
+  </si>
+  <si>
+    <t>3002050258</t>
+  </si>
+  <si>
+    <t>Diego Yanez</t>
+  </si>
+  <si>
+    <t>Yanez</t>
+  </si>
+  <si>
+    <t>3002052165</t>
+  </si>
+  <si>
+    <t>Jose Vicente</t>
+  </si>
+  <si>
+    <t>Yañez Gutierrez</t>
+  </si>
+  <si>
+    <t>3002052215</t>
+  </si>
+  <si>
+    <t>Diana Moreno</t>
+  </si>
+  <si>
+    <t>Moreno Figueredo</t>
+  </si>
+  <si>
+    <t>3002071555</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Celis</t>
+  </si>
+  <si>
+    <t>3002091386</t>
+  </si>
+  <si>
+    <t>Maria Elena</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>3002095941</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Alex Don</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>3002115402</t>
+  </si>
+  <si>
+    <t>Rosa Barba</t>
+  </si>
+  <si>
+    <t>Barba</t>
+  </si>
+  <si>
+    <t>3002123033</t>
+  </si>
+  <si>
+    <t>Monica Ochoa</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>3002129665</t>
+  </si>
+  <si>
+    <t>Merced Cda</t>
+  </si>
+  <si>
+    <t>Cda</t>
+  </si>
+  <si>
+    <t>3002131137</t>
+  </si>
+  <si>
+    <t>Belcy Almeida</t>
+  </si>
+  <si>
+    <t>Almeida</t>
+  </si>
+  <si>
+    <t>3002137780</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Angela Lam</t>
+  </si>
+  <si>
+    <t>3002146374</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Karen Rodriguez</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>3002165723</t>
+  </si>
+  <si>
+    <t>July Marquez</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>3002175173</t>
+  </si>
+  <si>
+    <t>Jose Rodriguez</t>
+  </si>
+  <si>
+    <t>3002188887</t>
+  </si>
+  <si>
+    <t>Gabriel Fernandez</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>3002233060</t>
+  </si>
+  <si>
+    <t>Luis Cordero</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>3002368404</t>
+  </si>
+  <si>
+    <t>Ingrid Ramirez</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>3002368993</t>
+  </si>
+  <si>
+    <t>Elizabeth Parada</t>
+  </si>
+  <si>
+    <t>3002392251</t>
+  </si>
+  <si>
+    <t>Internet Unipamplona</t>
+  </si>
+  <si>
+    <t>Unipamplona</t>
+  </si>
+  <si>
+    <t>3002413916</t>
+  </si>
+  <si>
+    <t>Carlos Rios</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>3002444420</t>
+  </si>
+  <si>
+    <t>Maryeth Constanza</t>
+  </si>
+  <si>
+    <t>3002464434</t>
+  </si>
+  <si>
+    <t>David Planeacion</t>
+  </si>
+  <si>
+    <t>Planeacion</t>
+  </si>
+  <si>
+    <t>3002609938</t>
+  </si>
+  <si>
+    <t>Alicia Cera</t>
+  </si>
+  <si>
+    <t>Cera</t>
+  </si>
+  <si>
+    <t>3002625492</t>
+  </si>
+  <si>
+    <t>Jesus Gomez</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>3002634982</t>
+  </si>
+  <si>
+    <t>Dario Repuestos</t>
+  </si>
+  <si>
+    <t>Repuestos</t>
+  </si>
+  <si>
+    <t>3002661826</t>
+  </si>
+  <si>
+    <t>Maria Maria</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>3002665505</t>
+  </si>
+  <si>
+    <t>Javier Pabon</t>
+  </si>
+  <si>
+    <t>Pabon</t>
+  </si>
+  <si>
+    <t>3002669726</t>
+  </si>
+  <si>
+    <t>Quesudos Quesudos</t>
+  </si>
+  <si>
+    <t>Quesudos</t>
+  </si>
+  <si>
+    <t>3002713537</t>
+  </si>
+  <si>
+    <t>Yuleisy Turno</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>3002917682</t>
+  </si>
+  <si>
+    <t>Marcela Caro</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>3002962884</t>
+  </si>
+  <si>
+    <t>Erika Lilinana</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>3002979102</t>
+  </si>
+  <si>
+    <t>Jose Licencia</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>3003006789</t>
+  </si>
+  <si>
+    <t>Belkis Gutierrez</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>3003080002</t>
+  </si>
+  <si>
+    <t>Andrea Amiga</t>
+  </si>
+  <si>
+    <t>Amiga</t>
+  </si>
+  <si>
+    <t>3003211505</t>
+  </si>
+  <si>
+    <t>Marly Rodriguez</t>
+  </si>
+  <si>
+    <t>3003218534</t>
+  </si>
+  <si>
+    <t>Jose Angeles</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>3003234948</t>
+  </si>
+  <si>
+    <t>German Berbesi</t>
+  </si>
+  <si>
+    <t>Berbesi</t>
+  </si>
+  <si>
+    <t>3003237074</t>
+  </si>
+  <si>
+    <t>Juli Hija</t>
+  </si>
+  <si>
+    <t>Hija</t>
+  </si>
+  <si>
+    <t>3003413887</t>
+  </si>
+  <si>
+    <t>Estefania Chinacota</t>
+  </si>
+  <si>
+    <t>Chinacota</t>
+  </si>
+  <si>
+    <t>3003460272</t>
+  </si>
+  <si>
+    <t>Andrea Carolina</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>3003464939</t>
+  </si>
+  <si>
+    <t>Maria Esap</t>
+  </si>
+  <si>
+    <t>Esap</t>
+  </si>
+  <si>
+    <t>3003484177</t>
+  </si>
+  <si>
+    <t>Dora Isabel</t>
+  </si>
+  <si>
+    <t>3003552819</t>
+  </si>
+  <si>
+    <t>Luis Pamplona</t>
+  </si>
+  <si>
+    <t>Pamplona</t>
+  </si>
+  <si>
+    <t>3003560127</t>
+  </si>
+  <si>
+    <t>John Olivares</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>3003679656</t>
+  </si>
+  <si>
+    <t>Marcela Pradilla</t>
+  </si>
+  <si>
+    <t>Pradilla</t>
+  </si>
+  <si>
+    <t>3003686474</t>
+  </si>
+  <si>
+    <t>Alexander Moreno</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>3003723454</t>
+  </si>
+  <si>
+    <t>Conductor Elegido</t>
+  </si>
+  <si>
+    <t>Elegido</t>
+  </si>
+  <si>
+    <t>3003754820</t>
+  </si>
+  <si>
+    <t>Wilson Amaya</t>
+  </si>
+  <si>
+    <t>Amaya</t>
+  </si>
+  <si>
+    <t>3003777049</t>
+  </si>
+  <si>
+    <t>Maria Angelica</t>
+  </si>
+  <si>
+    <t>3003779166</t>
+  </si>
+  <si>
+    <t>Yorman Local</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>3003890111</t>
+  </si>
+  <si>
+    <t>Hector Perozo</t>
+  </si>
+  <si>
+    <t>Perozo</t>
+  </si>
+  <si>
+    <t>3004002430</t>
+  </si>
+  <si>
+    <t>Jenifer Gabriela</t>
+  </si>
+  <si>
+    <t>3004130811</t>
+  </si>
+  <si>
+    <t>Lina Galaviz</t>
+  </si>
+  <si>
+    <t>Galaviz</t>
+  </si>
+  <si>
+    <t>3004241562</t>
+  </si>
+  <si>
+    <t>Jc Jc</t>
+  </si>
+  <si>
+    <t>Jc</t>
+  </si>
+  <si>
+    <t>3004249689</t>
+  </si>
+  <si>
+    <t>Juan Valencia</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>3004398742</t>
+  </si>
+  <si>
+    <t>Mauro Mauro</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>3004774625</t>
+  </si>
+  <si>
+    <t>Paola Paola</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>3004810159</t>
+  </si>
+  <si>
+    <t>Mauricio Chacon</t>
+  </si>
+  <si>
+    <t>Chacon</t>
+  </si>
+  <si>
+    <t>3004847971</t>
+  </si>
+  <si>
+    <t>Ferreteria Santa</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>3004859202</t>
+  </si>
+  <si>
+    <t>Juan Borriqueros</t>
+  </si>
+  <si>
+    <t>Borriqueros</t>
+  </si>
+  <si>
+    <t>3004881674</t>
+  </si>
+  <si>
+    <t>Laurent Enard</t>
+  </si>
+  <si>
+    <t>Enard</t>
+  </si>
+  <si>
+    <t>3004927633</t>
+  </si>
+  <si>
+    <t>Jenner Sepulveda</t>
+  </si>
+  <si>
+    <t>Sepulveda</t>
+  </si>
+  <si>
+    <t>3005074253</t>
+  </si>
+  <si>
+    <t>Arturo Jaimes</t>
+  </si>
+  <si>
+    <t>3005160622</t>
+  </si>
+  <si>
+    <t>Juan Cartagena</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>3005167366</t>
+  </si>
+  <si>
+    <t>Jennifer Moreno</t>
+  </si>
+  <si>
+    <t>3005257218</t>
+  </si>
+  <si>
+    <t>Carlos Mauricio</t>
+  </si>
+  <si>
+    <t>3005322590</t>
+  </si>
+  <si>
+    <t>Heiner Chaparro</t>
+  </si>
+  <si>
+    <t>Chaparro</t>
+  </si>
+  <si>
+    <t>3005340490</t>
+  </si>
+  <si>
+    <t>Paula Farfan</t>
+  </si>
+  <si>
+    <t>Farfan</t>
+  </si>
+  <si>
+    <t>3005368618</t>
+  </si>
+  <si>
+    <t>Maria Perez</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>3005474496</t>
+  </si>
+  <si>
+    <t>Jesus Jaraba</t>
+  </si>
+  <si>
+    <t>Jaraba</t>
+  </si>
+  <si>
+    <t>3005507818</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Fabio Ramirez</t>
+  </si>
+  <si>
+    <t>3005524245</t>
+  </si>
+  <si>
+    <t>Mario Castellanos</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>3005576653</t>
+  </si>
+  <si>
+    <t>Guajiro Cesar</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>3005619044</t>
+  </si>
+  <si>
+    <t>Profesor Matajira</t>
+  </si>
+  <si>
+    <t>Matajira</t>
+  </si>
+  <si>
+    <t>3005622011</t>
+  </si>
+  <si>
+    <t>Carmen Elena</t>
+  </si>
+  <si>
+    <t>3005633441</t>
+  </si>
+  <si>
+    <t>Maria Elisa</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>3005648657</t>
+  </si>
+  <si>
+    <t>Esteban Gonzalez</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>3005649163</t>
+  </si>
+  <si>
+    <t>Profe Profe</t>
+  </si>
+  <si>
+    <t>Profe</t>
+  </si>
+  <si>
+    <t>3005720254</t>
+  </si>
+  <si>
+    <t>Juan Francisco</t>
+  </si>
+  <si>
+    <t>3005759613</t>
+  </si>
+  <si>
+    <t>Julian Niño</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>3005767493</t>
+  </si>
+  <si>
+    <t>Alexander Bladimir</t>
+  </si>
+  <si>
+    <t>Bladimir</t>
+  </si>
+  <si>
+    <t>3006109431</t>
+  </si>
+  <si>
+    <t>Jefferson Jair</t>
+  </si>
+  <si>
+    <t>3006131512</t>
+  </si>
+  <si>
+    <t>Jorge Silva</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>3006159077</t>
+  </si>
+  <si>
+    <t>Andres Leal</t>
+  </si>
+  <si>
+    <t>Leal</t>
+  </si>
+  <si>
+    <t>3006204412</t>
+  </si>
+  <si>
+    <t>Diana Vargas</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>3006210147</t>
+  </si>
+  <si>
+    <t>Legionaria Mercedes</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>3006411192</t>
+  </si>
+  <si>
+    <t>Jairo Jaramillo</t>
+  </si>
+  <si>
+    <t>Jaramillo</t>
+  </si>
+  <si>
+    <t>3006495365</t>
+  </si>
+  <si>
+    <t>Edgar Consa</t>
+  </si>
+  <si>
+    <t>Consa</t>
+  </si>
+  <si>
+    <t>3006503641</t>
   </si>
 </sst>
 </file>
@@ -497,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -599,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -631,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -660,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -670,6 +1540,1689 @@
       </c>
       <c r="J5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>246</v>
+      </c>
+      <c r="G75" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s">
+        <v>252</v>
+      </c>
+      <c r="G77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" t="s">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" t="s">
+        <v>264</v>
+      </c>
+      <c r="G82" t="s">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+      <c r="G86" t="s">
+        <v>277</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" t="s">
+        <v>281</v>
+      </c>
+      <c r="E88" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
+        <v>284</v>
+      </c>
+      <c r="E89" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" t="s">
+        <v>290</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" t="s">
+        <v>293</v>
+      </c>
+      <c r="G92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" t="s">
+        <v>296</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" t="s">
+        <v>299</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>304</v>
+      </c>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" t="s">
+        <v>307</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>309</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" t="s">
+        <v>312</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>313</v>
+      </c>
+      <c r="B100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" t="s">
+        <v>315</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" t="s">
+        <v>318</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" t="s">
+        <v>320</v>
+      </c>
+      <c r="E102" t="s">
+        <v>321</v>
+      </c>
+      <c r="G102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" t="s">
+        <v>323</v>
+      </c>
+      <c r="E103" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>325</v>
+      </c>
+      <c r="B104" t="s">
+        <v>326</v>
+      </c>
+      <c r="E104" t="s">
+        <v>327</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
